--- a/biology/Médecine/Hyphéma/Hyphéma.xlsx
+++ b/biology/Médecine/Hyphéma/Hyphéma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hyph%C3%A9ma</t>
+          <t>Hyphéma</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyphéma est défini par du sang à l'avant de l'œil, plus précisément dans la chambre antérieure. Il se manifeste généralement par une petite accumulation de sang au pied de l'iris, juste derrière la cornée, parfois on ne distingue qu'une légère teinte rougeâtre.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hyph%C3%A9ma</t>
+          <t>Hyphéma</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyphéma est souvent causé par un traumatisme au niveau du visage, il peut empêcher la vision, partiellement ou entièrement.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hyph%C3%A9ma</t>
+          <t>Hyphéma</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Évolution et pronostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hyphéma se résout généralement de lui-même, parfois il nécessite un traitement médical, lorsqu'il existe un risque de déficience visuelle permanente. Un hyphéma persistant trop longtemps peut entraîner une hémosidérose et hétérochromie, l'accumulation de sang pouvant également provoquer une élévation de la pression intra-oculaire.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hyph%C3%A9ma</t>
+          <t>Hyphéma</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Traitement de l'hyphéma repose sur quatre grands principes:
 1. Diminution voire arrêt complet des activités (alitement) afin d'éviter une récidive hémorragique dans la chambre antérieure (pouvant entraîner une obstruction de la vision, ou une augmentation de la pression douloureuse).
